--- a/data/coded_segments/md_5_1.xlsx
+++ b/data/coded_segments/md_5_1.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4365EECC-CC6E-654D-A829-B4E2B81C7C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="465">
   <si>
     <t>Color</t>
   </si>
@@ -86,7 +82,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>8/10/18 14:09:48</t>
+    <t>8/10/18 14:09:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -101,9 +97,6 @@
     <t>girl</t>
   </si>
   <si>
-    <t>8/10/18 14:09:54</t>
-  </si>
-  <si>
     <t>Patient:Symptoms/Disease</t>
   </si>
   <si>
@@ -116,7 +109,7 @@
     <t>watery diarrhea</t>
   </si>
   <si>
-    <t>8/10/18 14:10:03</t>
+    <t>8/10/18 14:10:00</t>
   </si>
   <si>
     <t>1: 2685</t>
@@ -128,9 +121,6 @@
     <t>abdominal pain</t>
   </si>
   <si>
-    <t>8/10/18 14:10:07</t>
-  </si>
-  <si>
     <t>1: 2706</t>
   </si>
   <si>
@@ -140,9 +130,6 @@
     <t>fever</t>
   </si>
   <si>
-    <t>8/10/18 14:10:10</t>
-  </si>
-  <si>
     <t>Location:City</t>
   </si>
   <si>
@@ -155,9 +142,6 @@
     <t>Santo Domingo</t>
   </si>
   <si>
-    <t>8/10/18 14:10:16</t>
-  </si>
-  <si>
     <t>Patient:Country of Residence</t>
   </si>
   <si>
@@ -170,9 +154,6 @@
     <t>Ecuadorian</t>
   </si>
   <si>
-    <t>8/10/18 14:10:22</t>
-  </si>
-  <si>
     <t>Bacteria:Binomial (genus species)</t>
   </si>
   <si>
@@ -185,9 +166,6 @@
     <t>Shigella sonnei</t>
   </si>
   <si>
-    <t>8/10/18 14:10:39</t>
-  </si>
-  <si>
     <t>Exclusion: Not first case in country</t>
   </si>
   <si>
@@ -200,7 +178,7 @@
     <t>resistance</t>
   </si>
   <si>
-    <t>8/10/18 14:11:48</t>
+    <t>8/10/18 14:11:00</t>
   </si>
   <si>
     <t>1363</t>
@@ -215,7 +193,7 @@
     <t xml:space="preserve"> 54</t>
   </si>
   <si>
-    <t>8/10/18 14:12:06</t>
+    <t>8/10/18 14:12:00</t>
   </si>
   <si>
     <t>1: 2541</t>
@@ -227,9 +205,6 @@
     <t>woman</t>
   </si>
   <si>
-    <t>8/10/18 14:12:09</t>
-  </si>
-  <si>
     <t>1: 2531</t>
   </si>
   <si>
@@ -239,9 +214,6 @@
     <t>Jordanian</t>
   </si>
   <si>
-    <t>8/10/18 14:12:16</t>
-  </si>
-  <si>
     <t>Patient:Comorbidities</t>
   </si>
   <si>
@@ -254,9 +226,6 @@
     <t xml:space="preserve"> breast cancer</t>
   </si>
   <si>
-    <t>8/10/18 14:12:25</t>
-  </si>
-  <si>
     <t>Patient:Outcome</t>
   </si>
   <si>
@@ -269,9 +238,6 @@
     <t>well</t>
   </si>
   <si>
-    <t>8/10/18 14:12:53</t>
-  </si>
-  <si>
     <t>Event month</t>
   </si>
   <si>
@@ -284,7 +250,7 @@
     <t>December</t>
   </si>
   <si>
-    <t>8/10/18 14:13:04</t>
+    <t>8/10/18 14:13:00</t>
   </si>
   <si>
     <t>Event year</t>
@@ -299,18 +265,12 @@
     <t>2012</t>
   </si>
   <si>
-    <t>8/10/18 14:13:07</t>
-  </si>
-  <si>
     <t>2: 535</t>
   </si>
   <si>
     <t>2: 539</t>
   </si>
   <si>
-    <t>8/10/18 14:13:11</t>
-  </si>
-  <si>
     <t>2: 542</t>
   </si>
   <si>
@@ -320,9 +280,6 @@
     <t>chills</t>
   </si>
   <si>
-    <t>8/10/18 14:13:18</t>
-  </si>
-  <si>
     <t>2: 561</t>
   </si>
   <si>
@@ -332,9 +289,6 @@
     <t>sweats</t>
   </si>
   <si>
-    <t>8/10/18 14:13:21</t>
-  </si>
-  <si>
     <t>Drug Resisted</t>
   </si>
   <si>
@@ -347,7 +301,7 @@
     <t>vancomycin</t>
   </si>
   <si>
-    <t>8/10/18 14:15:02</t>
+    <t>8/10/18 14:15:00</t>
   </si>
   <si>
     <t>4: 1157</t>
@@ -359,18 +313,12 @@
     <t>resistant</t>
   </si>
   <si>
-    <t>8/10/18 14:15:28</t>
-  </si>
-  <si>
     <t>1: 30</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>8/10/18 14:15:41</t>
-  </si>
-  <si>
     <t>2791</t>
   </si>
   <si>
@@ -383,9 +331,6 @@
     <t>Oxacillin</t>
   </si>
   <si>
-    <t>8/10/18 14:15:49</t>
-  </si>
-  <si>
     <t>1: 65</t>
   </si>
   <si>
@@ -395,9 +340,6 @@
     <t>Staphylococcus aureus</t>
   </si>
   <si>
-    <t>8/10/18 14:15:59</t>
-  </si>
-  <si>
     <t>1: 976</t>
   </si>
   <si>
@@ -407,7 +349,7 @@
     <t xml:space="preserve"> 81</t>
   </si>
   <si>
-    <t>8/10/18 14:16:03</t>
+    <t>8/10/18 14:16:00</t>
   </si>
   <si>
     <t>1: 989</t>
@@ -419,9 +361,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>8/10/18 14:16:06</t>
-  </si>
-  <si>
     <t>1: 1054</t>
   </si>
   <si>
@@ -431,27 +370,18 @@
     <t>AICD</t>
   </si>
   <si>
-    <t>8/10/18 14:16:13</t>
-  </si>
-  <si>
     <t>1: 1104</t>
   </si>
   <si>
     <t>1: 1108</t>
   </si>
   <si>
-    <t>8/10/18 14:16:20</t>
-  </si>
-  <si>
     <t>1: 1114</t>
   </si>
   <si>
     <t>1: 1119</t>
   </si>
   <si>
-    <t>8/10/18 14:16:23</t>
-  </si>
-  <si>
     <t>1: 1196</t>
   </si>
   <si>
@@ -459,9 +389,6 @@
   </si>
   <si>
     <t>diabetes mellitus</t>
-  </si>
-  <si>
-    <t>8/10/18 14:16:36</t>
   </si>
   <si>
     <t>1: 1215</t>
@@ -474,9 +401,6 @@
 vein thrombosis</t>
   </si>
   <si>
-    <t>8/10/18 14:16:44</t>
-  </si>
-  <si>
     <t>1: 1238</t>
   </si>
   <si>
@@ -486,9 +410,6 @@
     <t>coronary atherosclerotic disease</t>
   </si>
   <si>
-    <t>8/10/18 14:16:52</t>
-  </si>
-  <si>
     <t>1: 1306</t>
   </si>
   <si>
@@ -498,9 +419,6 @@
     <t xml:space="preserve"> ischemic cardiomyopathy</t>
   </si>
   <si>
-    <t>8/10/18 14:16:57</t>
-  </si>
-  <si>
     <t>2: 1281</t>
   </si>
   <si>
@@ -510,13 +428,10 @@
     <t>penicillin</t>
   </si>
   <si>
-    <t>8/10/18 14:17:56</t>
+    <t>8/10/18 14:17:00</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>8/10/18 14:17:58</t>
   </si>
   <si>
     <t>2: 1308</t>
@@ -529,15 +444,12 @@
 _x0002_g/ml</t>
   </si>
   <si>
-    <t>8/10/18 14:18:07</t>
+    <t>8/10/18 14:18:00</t>
   </si>
   <si>
     <t>MIC</t>
   </si>
   <si>
-    <t>8/10/18 14:18:09</t>
-  </si>
-  <si>
     <t>Location:State/Province/District</t>
   </si>
   <si>
@@ -550,7 +462,7 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>8/10/18 14:19:26</t>
+    <t>8/10/18 14:19:00</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -565,9 +477,6 @@
     <t>USAb</t>
   </si>
   <si>
-    <t>8/10/18 14:19:30</t>
-  </si>
-  <si>
     <t>1: 469</t>
   </si>
   <si>
@@ -577,9 +486,6 @@
     <t>Atlanta</t>
   </si>
   <si>
-    <t>8/10/18 14:19:33</t>
-  </si>
-  <si>
     <t>3621</t>
   </si>
   <si>
@@ -592,9 +498,6 @@
     <t>1: 180</t>
   </si>
   <si>
-    <t>8/10/18 14:19:47</t>
-  </si>
-  <si>
     <t>3625</t>
   </si>
   <si>
@@ -604,9 +507,6 @@
     <t>1: 1642</t>
   </si>
   <si>
-    <t>8/10/18 14:19:56</t>
-  </si>
-  <si>
     <t>4223</t>
   </si>
   <si>
@@ -616,7 +516,7 @@
     <t>1: 337</t>
   </si>
   <si>
-    <t>8/10/18 14:20:15</t>
+    <t>8/10/18 14:20:00</t>
   </si>
   <si>
     <t>4379</t>
@@ -631,9 +531,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>8/10/18 14:20:42</t>
-  </si>
-  <si>
     <t>1: 3503</t>
   </si>
   <si>
@@ -643,9 +540,6 @@
     <t>2013</t>
   </si>
   <si>
-    <t>8/10/18 14:20:46</t>
-  </si>
-  <si>
     <t>1: 3511</t>
   </si>
   <si>
@@ -655,9 +549,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>8/10/18 14:20:55</t>
-  </si>
-  <si>
     <t>1: 3523</t>
   </si>
   <si>
@@ -682,9 +573,6 @@
     <t>Christchurch Hospita</t>
   </si>
   <si>
-    <t>8/10/18 14:21:06</t>
-  </si>
-  <si>
     <t>1: 3575</t>
   </si>
   <si>
@@ -694,9 +582,6 @@
     <t>right sided abdominal pain</t>
   </si>
   <si>
-    <t>8/10/18 14:21:15</t>
-  </si>
-  <si>
     <t>1: 3603</t>
   </si>
   <si>
@@ -706,9 +591,6 @@
     <t>nausea</t>
   </si>
   <si>
-    <t>8/10/18 14:21:19</t>
-  </si>
-  <si>
     <t>1: 3613</t>
   </si>
   <si>
@@ -718,9 +600,6 @@
     <t>pale stools</t>
   </si>
   <si>
-    <t>8/10/18 14:21:25</t>
-  </si>
-  <si>
     <t>1: 3626</t>
   </si>
   <si>
@@ -730,9 +609,6 @@
     <t>poor appetite and dysuria</t>
   </si>
   <si>
-    <t>8/10/18 14:21:33</t>
-  </si>
-  <si>
     <t>1: 1424</t>
   </si>
   <si>
@@ -742,9 +618,6 @@
     <t>Staphylococcus saprophyticus</t>
   </si>
   <si>
-    <t>8/10/18 14:21:59</t>
-  </si>
-  <si>
     <t>2: 11</t>
   </si>
   <si>
@@ -754,7 +627,7 @@
     <t>methicillin</t>
   </si>
   <si>
-    <t>8/10/18 14:22:33</t>
+    <t>8/10/18 14:22:00</t>
   </si>
   <si>
     <t>1: 6647</t>
@@ -763,7 +636,7 @@
     <t>1: 6656</t>
   </si>
   <si>
-    <t>8/10/18 14:23:17</t>
+    <t>8/10/18 14:23:00</t>
   </si>
   <si>
     <t>1: 6659</t>
@@ -775,9 +648,6 @@
     <t>oxacillin</t>
   </si>
   <si>
-    <t>8/10/18 14:23:20</t>
-  </si>
-  <si>
     <t>1: 6673</t>
   </si>
   <si>
@@ -787,9 +657,6 @@
     <t>cefoxitin</t>
   </si>
   <si>
-    <t>8/10/18 14:23:23</t>
-  </si>
-  <si>
     <t>1: 6717</t>
   </si>
   <si>
@@ -799,9 +666,6 @@
     <t>trimethoprim</t>
   </si>
   <si>
-    <t>8/10/18 14:23:28</t>
-  </si>
-  <si>
     <t>1: 6731</t>
   </si>
   <si>
@@ -811,9 +675,6 @@
     <t>co-trimoxazole</t>
   </si>
   <si>
-    <t>8/10/18 14:23:31</t>
-  </si>
-  <si>
     <t>1: 6747</t>
   </si>
   <si>
@@ -823,9 +684,6 @@
     <t>erythromycin</t>
   </si>
   <si>
-    <t>8/10/18 14:23:36</t>
-  </si>
-  <si>
     <t>1: 6763</t>
   </si>
   <si>
@@ -835,9 +693,6 @@
     <t>mupirocin</t>
   </si>
   <si>
-    <t>8/10/18 14:23:39</t>
-  </si>
-  <si>
     <t>1: 6789</t>
   </si>
   <si>
@@ -847,9 +702,6 @@
     <t>fusidic acid</t>
   </si>
   <si>
-    <t>8/10/18 14:23:43</t>
-  </si>
-  <si>
     <t>1: 3083</t>
   </si>
   <si>
@@ -859,7 +711,7 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>8/10/18 14:24:06</t>
+    <t>8/10/18 14:24:00</t>
   </si>
   <si>
     <t>4900</t>
@@ -871,9 +723,6 @@
     <t>1: 1628</t>
   </si>
   <si>
-    <t>8/10/18 14:24:27</t>
-  </si>
-  <si>
     <t>5328</t>
   </si>
   <si>
@@ -883,9 +732,6 @@
     <t>u</t>
   </si>
   <si>
-    <t>8/10/18 14:24:49</t>
-  </si>
-  <si>
     <t>5811</t>
   </si>
   <si>
@@ -895,7 +741,7 @@
     <t>1: 157</t>
   </si>
   <si>
-    <t>8/10/18 14:25:55</t>
+    <t>8/10/18 14:25:00</t>
   </si>
   <si>
     <t>7220</t>
@@ -910,7 +756,7 @@
     <t>Resistant</t>
   </si>
   <si>
-    <t>8/10/18 14:26:13</t>
+    <t>8/10/18 14:26:00</t>
   </si>
   <si>
     <t>21437</t>
@@ -925,7 +771,7 @@
     <t>1: 6527</t>
   </si>
   <si>
-    <t>8/10/18 14:53:30</t>
+    <t>8/10/18 14:53:00</t>
   </si>
   <si>
     <t>18437</t>
@@ -940,7 +786,7 @@
     <t>B cenocepacia</t>
   </si>
   <si>
-    <t>8/10/18 14:58:12</t>
+    <t>8/10/18 14:58:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -955,18 +801,12 @@
     <t>J2315</t>
   </si>
   <si>
-    <t>8/10/18 14:58:15</t>
-  </si>
-  <si>
     <t>1: 2415</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>8/10/18 14:58:24</t>
-  </si>
-  <si>
     <t>1: 2426</t>
   </si>
   <si>
@@ -976,18 +816,12 @@
     <t>boy</t>
   </si>
   <si>
-    <t>8/10/18 14:58:28</t>
-  </si>
-  <si>
     <t>1: 2473</t>
   </si>
   <si>
     <t>1: 2477</t>
   </si>
   <si>
-    <t>8/10/18 14:58:34</t>
-  </si>
-  <si>
     <t>1: 2566</t>
   </si>
   <si>
@@ -997,9 +831,6 @@
     <t>vomiting</t>
   </si>
   <si>
-    <t>8/10/18 14:58:40</t>
-  </si>
-  <si>
     <t>1: 3094</t>
   </si>
   <si>
@@ -1009,16 +840,13 @@
     <t>recovered</t>
   </si>
   <si>
-    <t>8/10/18 14:58:49</t>
-  </si>
-  <si>
     <t>1: 3147</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>8/10/18 14:59:02</t>
+    <t>8/10/18 14:59:00</t>
   </si>
   <si>
     <t>1: 3244</t>
@@ -1027,9 +855,6 @@
     <t>1: 3251</t>
   </si>
   <si>
-    <t>8/10/18 14:59:12</t>
-  </si>
-  <si>
     <t>1: 3253</t>
   </si>
   <si>
@@ -1039,9 +864,6 @@
     <t xml:space="preserve"> abdominal distress</t>
   </si>
   <si>
-    <t>8/10/18 14:59:17</t>
-  </si>
-  <si>
     <t>2: 516</t>
   </si>
   <si>
@@ -1051,9 +873,6 @@
     <t>discharge</t>
   </si>
   <si>
-    <t>8/10/18 14:59:46</t>
-  </si>
-  <si>
     <t>2: 2283</t>
   </si>
   <si>
@@ -1063,7 +882,7 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>8/10/18 15:00:09</t>
+    <t>8/10/18 15:00:00</t>
   </si>
   <si>
     <t>16248</t>
@@ -1078,9 +897,6 @@
     <t>Enterobacteriaceae</t>
   </si>
   <si>
-    <t>8/10/18 15:00:47</t>
-  </si>
-  <si>
     <t>1: 1927</t>
   </si>
   <si>
@@ -1090,42 +906,12 @@
     <t>32</t>
   </si>
   <si>
-    <t>8/10/18 15:00:50</t>
-  </si>
-  <si>
     <t>1: 1939</t>
   </si>
   <si>
     <t>1: 1941</t>
   </si>
   <si>
-    <t>8/10/18 15:00:55</t>
-  </si>
-  <si>
-    <t>1: 1995</t>
-  </si>
-  <si>
-    <t>1: 2000</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>8/10/18 15:00:59</t>
-  </si>
-  <si>
-    <t>1: 2016</t>
-  </si>
-  <si>
-    <t>1: 2020</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>8/10/18 15:01:03</t>
-  </si>
-  <si>
     <t>1: 2030</t>
   </si>
   <si>
@@ -1135,7 +921,7 @@
     <t>2010</t>
   </si>
   <si>
-    <t>8/10/18 15:01:06</t>
+    <t>8/10/18 15:01:00</t>
   </si>
   <si>
     <t>1: 2115</t>
@@ -1144,9 +930,6 @@
     <t>1: 2131</t>
   </si>
   <si>
-    <t>8/10/18 15:01:15</t>
-  </si>
-  <si>
     <t>1: 2258</t>
   </si>
   <si>
@@ -1156,34 +939,13 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>8/10/18 15:01:38</t>
-  </si>
-  <si>
-    <t>Location:Place traveled to</t>
-  </si>
-  <si>
-    <t>8/10/18 15:01:44</t>
-  </si>
-  <si>
-    <t>1: 2249</t>
-  </si>
-  <si>
-    <t>1: 2255</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>8/10/18 15:01:53</t>
-  </si>
-  <si>
     <t>1: 2508</t>
   </si>
   <si>
     <t>improved</t>
   </si>
   <si>
-    <t>8/10/18 15:02:06</t>
+    <t>8/10/18 15:02:00</t>
   </si>
   <si>
     <t>2: 949</t>
@@ -1195,9 +957,6 @@
     <t>amoxicillin/clavulanic acid</t>
   </si>
   <si>
-    <t>8/10/18 15:02:36</t>
-  </si>
-  <si>
     <t>2: 978</t>
   </si>
   <si>
@@ -1207,18 +966,12 @@
     <t>piperacillin/tazobactam</t>
   </si>
   <si>
-    <t>8/10/18 15:02:41</t>
-  </si>
-  <si>
     <t>2: 1005</t>
   </si>
   <si>
     <t>2: 1013</t>
   </si>
   <si>
-    <t>8/10/18 15:02:43</t>
-  </si>
-  <si>
     <t>2: 1016</t>
   </si>
   <si>
@@ -1228,9 +981,6 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>8/10/18 15:02:45</t>
-  </si>
-  <si>
     <t>2: 1029</t>
   </si>
   <si>
@@ -1240,9 +990,6 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>8/10/18 15:02:48</t>
-  </si>
-  <si>
     <t>2: 1042</t>
   </si>
   <si>
@@ -1252,7 +999,7 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>8/10/18 15:03:01</t>
+    <t>8/10/18 15:03:00</t>
   </si>
   <si>
     <t>2: 1053</t>
@@ -1265,9 +1012,6 @@
 em</t>
   </si>
   <si>
-    <t>8/10/18 15:03:06</t>
-  </si>
-  <si>
     <t>2: 1067</t>
   </si>
   <si>
@@ -1277,9 +1021,6 @@
     <t>ertapenem</t>
   </si>
   <si>
-    <t>8/10/18 15:03:09</t>
-  </si>
-  <si>
     <t>2: 1078</t>
   </si>
   <si>
@@ -1289,9 +1030,6 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>8/10/18 15:03:11</t>
-  </si>
-  <si>
     <t>2: 1088</t>
   </si>
   <si>
@@ -1301,9 +1039,6 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/10/18 15:03:14</t>
-  </si>
-  <si>
     <t>2: 1100</t>
   </si>
   <si>
@@ -1311,9 +1046,6 @@
   </si>
   <si>
     <t>tobramycin</t>
-  </si>
-  <si>
-    <t>8/10/18 15:03:17</t>
   </si>
   <si>
     <t>2: 1112</t>
@@ -1326,9 +1058,6 @@
 fl oxacin</t>
   </si>
   <si>
-    <t>8/10/18 15:03:28</t>
-  </si>
-  <si>
     <t>2: 1135</t>
   </si>
   <si>
@@ -1338,9 +1067,6 @@
     <t>trimethoprim/sulfamethoxazole</t>
   </si>
   <si>
-    <t>8/10/18 15:03:36</t>
-  </si>
-  <si>
     <t>15553</t>
   </si>
   <si>
@@ -1350,9 +1076,6 @@
     <t>1: 126</t>
   </si>
   <si>
-    <t>8/10/18 15:03:45</t>
-  </si>
-  <si>
     <t>14571</t>
   </si>
   <si>
@@ -1365,18 +1088,12 @@
     <t>76</t>
   </si>
   <si>
-    <t>8/10/18 15:03:54</t>
-  </si>
-  <si>
     <t>1: 2130</t>
   </si>
   <si>
     <t>1: 2134</t>
   </si>
   <si>
-    <t>8/10/18 15:03:57</t>
-  </si>
-  <si>
     <t>1: 2148</t>
   </si>
   <si>
@@ -1386,7 +1103,7 @@
     <t>Vancouver</t>
   </si>
   <si>
-    <t>8/10/18 15:04:03</t>
+    <t>8/10/18 15:04:00</t>
   </si>
   <si>
     <t>1: 2159</t>
@@ -1399,34 +1116,25 @@
 Columbia</t>
   </si>
   <si>
-    <t>8/10/18 15:04:11</t>
-  </si>
-  <si>
     <t>1: 2179</t>
   </si>
   <si>
     <t>1: 2184</t>
   </si>
   <si>
-    <t>8/10/18 15:04:14</t>
-  </si>
-  <si>
     <t>1: 2196</t>
   </si>
   <si>
     <t>1: 2199</t>
   </si>
   <si>
-    <t>8/10/18 15:04:18</t>
-  </si>
-  <si>
     <t>1: 2918</t>
   </si>
   <si>
     <t>1: 2926</t>
   </si>
   <si>
-    <t>8/10/18 15:14:52</t>
+    <t>8/10/18 15:14:00</t>
   </si>
   <si>
     <t>1: 3403</t>
@@ -1438,7 +1146,7 @@
     <t xml:space="preserve"> K. pneumoniae</t>
   </si>
   <si>
-    <t>8/10/18 15:15:14</t>
+    <t>8/10/18 15:15:00</t>
   </si>
   <si>
     <t>1: 3419</t>
@@ -1450,9 +1158,6 @@
     <t>N10–0469</t>
   </si>
   <si>
-    <t>8/10/18 15:15:20</t>
-  </si>
-  <si>
     <t>1: 3482</t>
   </si>
   <si>
@@ -1462,7 +1167,7 @@
     <t>chloramphenicol</t>
   </si>
   <si>
-    <t>8/10/18 15:17:51</t>
+    <t>8/10/18 15:17:00</t>
   </si>
   <si>
     <t>1: 3184</t>
@@ -1474,7 +1179,7 @@
     <t>consciousness had deteriorated</t>
   </si>
   <si>
-    <t>8/10/18 15:19:25</t>
+    <t>8/10/18 15:19:00</t>
   </si>
   <si>
     <t>1: 2588</t>
@@ -1486,9 +1191,6 @@
     <t>diarrhea</t>
   </si>
   <si>
-    <t>8/10/18 15:19:33</t>
-  </si>
-  <si>
     <t>1: 2469</t>
   </si>
   <si>
@@ -1498,9 +1200,6 @@
     <t>congestive heart failure</t>
   </si>
   <si>
-    <t>8/10/18 15:19:40</t>
-  </si>
-  <si>
     <t>1: 2450</t>
   </si>
   <si>
@@ -1510,9 +1209,6 @@
     <t>hypertension</t>
   </si>
   <si>
-    <t>8/10/18 15:19:43</t>
-  </si>
-  <si>
     <t>2: 295</t>
   </si>
   <si>
@@ -1522,7 +1218,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>8/10/18 15:20:18</t>
+    <t>8/10/18 15:20:00</t>
   </si>
   <si>
     <t>11237</t>
@@ -1534,9 +1230,6 @@
     <t>1: 1816</t>
   </si>
   <si>
-    <t>8/10/18 15:20:35</t>
-  </si>
-  <si>
     <t>11169</t>
   </si>
   <si>
@@ -1546,9 +1239,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>8/10/18 15:20:47</t>
-  </si>
-  <si>
     <t>10886</t>
   </si>
   <si>
@@ -1561,9 +1251,6 @@
     <t>1: 132</t>
   </si>
   <si>
-    <t>8/10/18 15:20:56</t>
-  </si>
-  <si>
     <t>10323</t>
   </si>
   <si>
@@ -1576,16 +1263,13 @@
     <t>70</t>
   </si>
   <si>
-    <t>8/10/18 15:21:21</t>
+    <t>8/10/18 15:21:00</t>
   </si>
   <si>
     <t>1: 2574</t>
   </si>
   <si>
     <t>1: 2576</t>
-  </si>
-  <si>
-    <t>8/10/18 15:21:27</t>
   </si>
   <si>
     <t>1: 2733</t>
@@ -1598,7 +1282,7 @@
 orrhage</t>
   </si>
   <si>
-    <t>8/10/18 15:22:37</t>
+    <t>8/10/18 15:22:00</t>
   </si>
   <si>
     <t>1: 2797</t>
@@ -1611,9 +1295,6 @@
 bleeding</t>
   </si>
   <si>
-    <t>8/10/18 15:22:44</t>
-  </si>
-  <si>
     <t>1: 2828</t>
   </si>
   <si>
@@ -1623,9 +1304,6 @@
     <t>respiratory distress</t>
   </si>
   <si>
-    <t>8/10/18 15:22:49</t>
-  </si>
-  <si>
     <t>1: 2391</t>
   </si>
   <si>
@@ -1635,7 +1313,7 @@
     <t>meropenem</t>
   </si>
   <si>
-    <t>8/10/18 15:23:29</t>
+    <t>8/10/18 15:23:00</t>
   </si>
   <si>
     <t>1: 2495</t>
@@ -1647,18 +1325,12 @@
     <t>fatal</t>
   </si>
   <si>
-    <t>8/10/18 15:23:42</t>
-  </si>
-  <si>
     <t>2: 1059</t>
   </si>
   <si>
     <t>2: 1062</t>
   </si>
   <si>
-    <t>8/10/18 15:23:56</t>
-  </si>
-  <si>
     <t>2: 1391</t>
   </si>
   <si>
@@ -1668,7 +1340,7 @@
     <t>all ß-lactam antibiotic</t>
   </si>
   <si>
-    <t>8/10/18 15:24:07</t>
+    <t>8/10/18 15:24:00</t>
   </si>
   <si>
     <t>2: 1527</t>
@@ -1677,12 +1349,6 @@
     <t>2: 1553</t>
   </si>
   <si>
-    <t>8/10/18 15:24:30</t>
-  </si>
-  <si>
-    <t>8/10/18 15:24:32</t>
-  </si>
-  <si>
     <t>2: 1556</t>
   </si>
   <si>
@@ -1692,12 +1358,6 @@
     <t>(16 µg/mL</t>
   </si>
   <si>
-    <t>8/10/18 15:24:37</t>
-  </si>
-  <si>
-    <t>8/10/18 15:24:40</t>
-  </si>
-  <si>
     <t>10144</t>
   </si>
   <si>
@@ -1707,10 +1367,7 @@
     <t>1: 123</t>
   </si>
   <si>
-    <t>8/10/18 15:26:25</t>
-  </si>
-  <si>
-    <t>8/10/18 15:26:32</t>
+    <t>8/10/18 15:26:00</t>
   </si>
   <si>
     <t>8608</t>
@@ -1722,13 +1379,55 @@
     <t>1: 1120</t>
   </si>
   <si>
-    <t>8/10/18 15:37:02</t>
+    <t>8/10/18 15:37:00</t>
+  </si>
+  <si>
+    <t>3: 1787</t>
+  </si>
+  <si>
+    <t>3: 1792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/29/18 12:07:00</t>
+  </si>
+  <si>
+    <t>1: 2249</t>
+  </si>
+  <si>
+    <t>1: 2255</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>11/2/18 11:11:00</t>
+  </si>
+  <si>
+    <t>Location:Place traveled to</t>
+  </si>
+  <si>
+    <t>1: 1995</t>
+  </si>
+  <si>
+    <t>1: 2021</t>
+  </si>
+  <si>
+    <t>Mysore, southwestern India,</t>
+  </si>
+  <si>
+    <t>11/2/18 11:12:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1878,10 +1577,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1904,7 +1606,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1916,7 +1618,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1933,9 +1635,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1963,14 +1665,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1998,6 +1717,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2149,7 +1885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2238,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>6.749460043196545E-3</v>
+        <v>6.7489999999999998E-3</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
@@ -2279,13 +2015,13 @@
         <v>4</v>
       </c>
       <c r="K3" s="4">
-        <v>2.699784017278618E-2</v>
+        <v>2.6998000000000001E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2302,31 +2038,31 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>15</v>
       </c>
       <c r="K4" s="4">
-        <v>0.10124190064794818</v>
+        <v>0.101242</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2343,31 +2079,31 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="3">
         <v>14</v>
       </c>
       <c r="K5" s="4">
-        <v>9.4492440604751621E-2</v>
+        <v>9.4492000000000007E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2384,31 +2120,31 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>3.3747300215982719E-2</v>
+        <v>3.3746999999999999E-2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2425,31 +2161,31 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J7" s="3">
         <v>13</v>
       </c>
       <c r="K7" s="4">
-        <v>8.7742980561555078E-2</v>
+        <v>8.7743000000000002E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2466,31 +2202,31 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
       </c>
       <c r="K8" s="4">
-        <v>6.7494600431965437E-2</v>
+        <v>6.7494999999999999E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2507,31 +2243,31 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="3">
         <v>15</v>
       </c>
       <c r="K9" s="4">
-        <v>0.10124190064794818</v>
+        <v>0.101242</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2548,31 +2284,31 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
       </c>
       <c r="K10" s="4">
-        <v>6.7494600431965437E-2</v>
+        <v>6.7494999999999999E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2586,34 +2322,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
       </c>
       <c r="K11" s="4">
-        <v>1.1842728564661299E-2</v>
+        <v>1.1842999999999999E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2627,34 +2363,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3">
         <v>5</v>
       </c>
       <c r="K12" s="4">
-        <v>2.9606821411653248E-2</v>
+        <v>2.9607000000000001E-2</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2668,34 +2404,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3">
         <v>9</v>
       </c>
       <c r="K13" s="4">
-        <v>5.3292278540975839E-2</v>
+        <v>5.3291999999999999E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2709,34 +2445,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J14" s="3">
         <v>13</v>
       </c>
       <c r="K14" s="4">
-        <v>7.6977735670298433E-2</v>
+        <v>7.6978000000000005E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2750,34 +2486,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J15" s="3">
         <v>4</v>
       </c>
       <c r="K15" s="4">
-        <v>2.3685457129322598E-2</v>
+        <v>2.3685000000000001E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2791,34 +2527,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J16" s="3">
         <v>8</v>
       </c>
       <c r="K16" s="4">
-        <v>4.7370914258645196E-2</v>
+        <v>4.7371000000000003E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2832,34 +2568,34 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
       </c>
       <c r="K17" s="4">
-        <v>2.3685457129322598E-2</v>
+        <v>2.3685000000000001E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2873,34 +2609,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="3">
         <v>5</v>
       </c>
       <c r="K18" s="4">
-        <v>2.9606821411653248E-2</v>
+        <v>2.9607000000000001E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2914,34 +2650,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J19" s="3">
         <v>6</v>
       </c>
       <c r="K19" s="4">
-        <v>3.5528185693983895E-2</v>
+        <v>3.5527999999999997E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2955,34 +2691,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J20" s="3">
         <v>6</v>
       </c>
       <c r="K20" s="4">
-        <v>3.5528185693983895E-2</v>
+        <v>3.5527999999999997E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2996,34 +2732,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J21" s="3">
         <v>10</v>
       </c>
       <c r="K21" s="4">
-        <v>5.9213642823306496E-2</v>
+        <v>5.9214000000000003E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3037,34 +2773,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J22" s="3">
         <v>9</v>
       </c>
       <c r="K22" s="4">
-        <v>5.3292278540975839E-2</v>
+        <v>5.3291999999999999E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3078,34 +2814,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>5.9213642823306495E-3</v>
+        <v>5.921E-3</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3119,34 +2855,34 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J24" s="3">
         <v>9</v>
       </c>
       <c r="K24" s="4">
-        <v>3.8598447484667842E-2</v>
+        <v>3.8598E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3160,34 +2896,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3">
         <v>21</v>
       </c>
       <c r="K25" s="4">
-        <v>9.0063044130891626E-2</v>
+        <v>9.0063000000000004E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3201,34 +2937,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J26" s="3">
         <v>2</v>
       </c>
       <c r="K26" s="4">
-        <v>8.5774327743706313E-3</v>
+        <v>8.5769999999999996E-3</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3242,34 +2978,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J27" s="3">
         <v>3</v>
       </c>
       <c r="K27" s="4">
-        <v>1.2866149161555946E-2</v>
+        <v>1.2866000000000001E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3283,34 +3019,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
       </c>
       <c r="K28" s="4">
-        <v>1.7154865548741263E-2</v>
+        <v>1.7155E-2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3324,34 +3060,34 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J29" s="3">
         <v>5</v>
       </c>
       <c r="K29" s="4">
-        <v>2.1443581935926579E-2</v>
+        <v>2.1444000000000001E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3365,34 +3101,34 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J30" s="3">
         <v>6</v>
       </c>
       <c r="K30" s="4">
-        <v>2.5732298323111892E-2</v>
+        <v>2.5732000000000001E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3406,37 +3142,37 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J31" s="3">
         <v>17</v>
       </c>
       <c r="K31" s="4">
-        <v>7.290817858215036E-2</v>
+        <v>7.2908000000000001E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -3447,34 +3183,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="J32" s="3">
         <v>21</v>
       </c>
       <c r="K32" s="4">
-        <v>9.0063044130891626E-2</v>
+        <v>9.0063000000000004E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3488,34 +3224,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="J33" s="3">
         <v>32</v>
       </c>
       <c r="K33" s="4">
-        <v>0.1372389243899301</v>
+        <v>0.137239</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3529,34 +3265,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J34" s="3">
         <v>23</v>
       </c>
       <c r="K34" s="4">
-        <v>9.8640476905262259E-2</v>
+        <v>9.8640000000000005E-2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3570,34 +3306,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="J35" s="3">
         <v>10</v>
       </c>
       <c r="K35" s="4">
-        <v>4.2887163871853158E-2</v>
+        <v>4.2887000000000002E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3611,37 +3347,37 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="J36" s="3">
         <v>10</v>
       </c>
       <c r="K36" s="4">
-        <v>4.2887163871853158E-2</v>
+        <v>4.2887000000000002E-2</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -3652,37 +3388,37 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J37" s="3">
         <v>13</v>
       </c>
       <c r="K37" s="4">
-        <v>5.5753313033409101E-2</v>
+        <v>5.5752999999999997E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3693,34 +3429,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J38" s="3">
         <v>13</v>
       </c>
       <c r="K38" s="4">
-        <v>5.5753313033409101E-2</v>
+        <v>5.5752999999999997E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3734,34 +3470,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="J39" s="3">
         <v>7</v>
       </c>
       <c r="K39" s="4">
-        <v>3.0021014710297209E-2</v>
+        <v>3.0020999999999999E-2</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3775,34 +3511,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="J40" s="3">
         <v>4</v>
       </c>
       <c r="K40" s="4">
-        <v>1.7154865548741263E-2</v>
+        <v>1.7155E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3816,34 +3552,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="J41" s="3">
         <v>7</v>
       </c>
       <c r="K41" s="4">
-        <v>3.0021014710297209E-2</v>
+        <v>3.0020999999999999E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3857,34 +3593,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J42" s="3">
         <v>9</v>
       </c>
       <c r="K42" s="4">
-        <v>3.0520889853499728E-2</v>
+        <v>3.0521E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3898,34 +3634,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J43" s="3">
         <v>9</v>
       </c>
       <c r="K43" s="4">
-        <v>3.689734339127583E-2</v>
+        <v>3.6896999999999999E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3939,34 +3675,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J44" s="3">
         <v>9</v>
       </c>
       <c r="K44" s="4">
-        <v>3.7912296221407807E-2</v>
+        <v>3.7912000000000001E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3980,34 +3716,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="J45" s="3">
         <v>7</v>
       </c>
       <c r="K45" s="4">
-        <v>2.3171902413188124E-2</v>
+        <v>2.3172000000000002E-2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4021,34 +3757,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J46" s="3">
         <v>4</v>
       </c>
       <c r="K46" s="4">
-        <v>1.3241087093250357E-2</v>
+        <v>1.3240999999999999E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4062,34 +3798,34 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="J47" s="3">
         <v>2</v>
       </c>
       <c r="K47" s="4">
-        <v>6.6205435466251787E-3</v>
+        <v>6.6210000000000001E-3</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4103,34 +3839,34 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="J48" s="3">
         <v>6</v>
       </c>
       <c r="K48" s="4">
-        <v>1.9861630639875533E-2</v>
+        <v>1.9862000000000001E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4144,34 +3880,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="J49" s="3">
         <v>20</v>
       </c>
       <c r="K49" s="4">
-        <v>6.620543546625178E-2</v>
+        <v>6.6205E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4185,34 +3921,34 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="J50" s="3">
         <v>26</v>
       </c>
       <c r="K50" s="4">
-        <v>8.6067066106127313E-2</v>
+        <v>8.6067000000000005E-2</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4226,34 +3962,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="J51" s="3">
         <v>6</v>
       </c>
       <c r="K51" s="4">
-        <v>1.9861630639875533E-2</v>
+        <v>1.9862000000000001E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4267,34 +4003,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="J52" s="3">
         <v>11</v>
       </c>
       <c r="K52" s="4">
-        <v>3.6412989506438481E-2</v>
+        <v>3.6413000000000001E-2</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4308,34 +4044,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="J53" s="3">
         <v>25</v>
       </c>
       <c r="K53" s="4">
-        <v>8.2756794332814729E-2</v>
+        <v>8.2756999999999997E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4349,34 +4085,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="J54" s="3">
         <v>28</v>
       </c>
       <c r="K54" s="4">
-        <v>9.2687609652752495E-2</v>
+        <v>9.2688000000000006E-2</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4390,34 +4126,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="J55" s="3">
         <v>11</v>
       </c>
       <c r="K55" s="4">
-        <v>3.6412989506438481E-2</v>
+        <v>3.6413000000000001E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4431,34 +4167,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="J56" s="3">
         <v>10</v>
       </c>
       <c r="K56" s="4">
-        <v>3.310271773312589E-2</v>
+        <v>3.3103E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4472,34 +4208,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="J57" s="3">
         <v>9</v>
       </c>
       <c r="K57" s="4">
-        <v>2.9792445959813302E-2</v>
+        <v>2.9791999999999999E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4513,34 +4249,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="J58" s="3">
         <v>9</v>
       </c>
       <c r="K58" s="4">
-        <v>2.9792445959813302E-2</v>
+        <v>2.9791999999999999E-2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4554,34 +4290,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J59" s="3">
         <v>12</v>
       </c>
       <c r="K59" s="4">
-        <v>3.9723261279751065E-2</v>
+        <v>3.9723000000000001E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4595,34 +4331,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="J60" s="3">
         <v>14</v>
       </c>
       <c r="K60" s="4">
-        <v>4.6343804826376248E-2</v>
+        <v>4.6344000000000003E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4636,34 +4372,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J61" s="3">
         <v>12</v>
       </c>
       <c r="K61" s="4">
-        <v>3.9723261279751065E-2</v>
+        <v>3.9723000000000001E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4677,34 +4413,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="J62" s="3">
         <v>9</v>
       </c>
       <c r="K62" s="4">
-        <v>2.9792445959813302E-2</v>
+        <v>2.9791999999999999E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4718,34 +4454,34 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="J63" s="3">
         <v>12</v>
       </c>
       <c r="K63" s="4">
-        <v>3.9723261279751065E-2</v>
+        <v>3.9723000000000001E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4759,34 +4495,34 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="J64" s="3">
         <v>11</v>
       </c>
       <c r="K64" s="4">
-        <v>3.6412989506438481E-2</v>
+        <v>3.6413000000000001E-2</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4800,34 +4536,34 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J65" s="3">
         <v>9</v>
       </c>
       <c r="K65" s="4">
-        <v>3.6680795565699378E-2</v>
+        <v>3.6680999999999998E-2</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4841,34 +4577,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
       </c>
       <c r="K66" s="4">
-        <v>6.9314479794829143E-3</v>
+        <v>6.9309999999999997E-3</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4882,34 +4618,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J67" s="3">
         <v>9</v>
       </c>
       <c r="K67" s="4">
-        <v>2.5594357865999319E-2</v>
+        <v>2.5593999999999999E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4923,34 +4659,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="J68" s="3">
         <v>9</v>
       </c>
       <c r="K68" s="4">
-        <v>2.236358214889176E-2</v>
+        <v>2.2363999999999998E-2</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4964,34 +4700,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J69" s="3">
         <v>9</v>
       </c>
       <c r="K69" s="4">
-        <v>4.0535062829347386E-2</v>
+        <v>4.0535000000000002E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5005,34 +4741,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="J70" s="3">
         <v>13</v>
       </c>
       <c r="K70" s="4">
-        <v>9.085191138444336E-2</v>
+        <v>9.0852000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5046,34 +4782,34 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="J71" s="3">
         <v>5</v>
       </c>
       <c r="K71" s="4">
-        <v>3.4943042840170524E-2</v>
+        <v>3.4943000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5087,34 +4823,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
       <c r="K72" s="4">
-        <v>6.9886085680341036E-3</v>
+        <v>6.9890000000000004E-3</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5128,34 +4864,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="J73" s="3">
         <v>3</v>
       </c>
       <c r="K73" s="4">
-        <v>2.0965825704102315E-2</v>
+        <v>2.0965999999999999E-2</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5169,34 +4905,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J74" s="3">
         <v>5</v>
       </c>
       <c r="K74" s="4">
-        <v>3.4943042840170524E-2</v>
+        <v>3.4943000000000002E-2</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5210,34 +4946,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="J75" s="3">
         <v>8</v>
       </c>
       <c r="K75" s="4">
-        <v>5.5908868544272829E-2</v>
+        <v>5.5909E-2</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5251,34 +4987,34 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="J76" s="3">
         <v>9</v>
       </c>
       <c r="K76" s="4">
-        <v>6.2897477112306935E-2</v>
+        <v>6.2896999999999995E-2</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5292,34 +5028,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
       </c>
       <c r="K77" s="4">
-        <v>6.9886085680341036E-3</v>
+        <v>6.9890000000000004E-3</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5333,34 +5069,34 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="J78" s="3">
         <v>8</v>
       </c>
       <c r="K78" s="4">
-        <v>5.5908868544272829E-2</v>
+        <v>5.5909E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5374,34 +5110,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="J79" s="3">
         <v>18</v>
       </c>
       <c r="K79" s="4">
-        <v>0.12579495422461387</v>
+        <v>0.12579499999999999</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5415,34 +5151,34 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="J80" s="3">
         <v>9</v>
       </c>
       <c r="K80" s="4">
-        <v>6.2897477112306935E-2</v>
+        <v>6.2896999999999995E-2</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5456,34 +5192,34 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="J81" s="3">
         <v>8</v>
       </c>
       <c r="K81" s="4">
-        <v>5.5908868544272829E-2</v>
+        <v>5.5909E-2</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5497,34 +5233,34 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="J82" s="3">
         <v>18</v>
       </c>
       <c r="K82" s="4">
-        <v>0.12344832316027708</v>
+        <v>0.123448</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5538,34 +5274,34 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="J83" s="3">
         <v>2</v>
       </c>
       <c r="K83" s="4">
-        <v>1.3716480351141896E-2</v>
+        <v>1.3716000000000001E-2</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5579,34 +5315,34 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J84" s="3">
         <v>3</v>
       </c>
       <c r="K84" s="4">
-        <v>2.0574720526712845E-2</v>
+        <v>2.0575E-2</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5620,34 +5356,34 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="J85" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K85" s="4">
-        <v>4.1149441053425689E-2</v>
+        <v>2.7432999999999999E-2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5661,34 +5397,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="J86" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K86" s="4">
-        <v>3.4291200877854741E-2</v>
+        <v>0.11659</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5702,34 +5438,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="J87" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K87" s="4">
-        <v>2.7432960702283793E-2</v>
+        <v>4.1148999999999998E-2</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5743,34 +5479,34 @@
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>371</v>
+        <v>55</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="J88" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K88" s="4">
-        <v>0.11659008298470612</v>
+        <v>5.4865999999999998E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5784,34 +5520,34 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="J89" s="3">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K89" s="4">
-        <v>4.1149441053425689E-2</v>
+        <v>0.185172</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5825,34 +5561,34 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>377</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="J90" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K90" s="4">
-        <v>3.4291200877854741E-2</v>
+        <v>0.15773999999999999</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>378</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5866,34 +5602,34 @@
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
       <c r="J91" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K91" s="4">
-        <v>4.8007681228996638E-2</v>
+        <v>6.1724000000000001E-2</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5907,34 +5643,34 @@
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="J92" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K92" s="4">
-        <v>5.4865921404567586E-2</v>
+        <v>7.5440999999999994E-2</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5948,34 +5684,34 @@
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="J93" s="3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K93" s="4">
-        <v>0.18517248474041562</v>
+        <v>7.5440999999999994E-2</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5989,37 +5725,37 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="J94" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K94" s="4">
-        <v>0.15773952403813182</v>
+        <v>6.1724000000000001E-2</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -6030,34 +5766,34 @@
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="J95" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K95" s="4">
-        <v>6.1724161580138541E-2</v>
+        <v>8.2298999999999997E-2</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>396</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6071,34 +5807,34 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="J96" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K96" s="4">
-        <v>7.544064193128043E-2</v>
+        <v>6.1724000000000001E-2</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>400</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6112,34 +5848,34 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="J97" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K97" s="4">
-        <v>7.544064193128043E-2</v>
+        <v>5.4865999999999998E-2</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6153,37 +5889,37 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="J98" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K98" s="4">
-        <v>6.1724161580138541E-2</v>
+        <v>6.8582000000000004E-2</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -6194,37 +5930,37 @@
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="J99" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K99" s="4">
-        <v>8.2298882106851379E-2</v>
+        <v>6.8582000000000004E-2</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -6235,34 +5971,34 @@
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="J100" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K100" s="4">
-        <v>6.1724161580138541E-2</v>
+        <v>0.11659</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6276,34 +6012,34 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="J101" s="3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K101" s="4">
-        <v>5.4865921404567586E-2</v>
+        <v>0.19888900000000001</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>420</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6317,34 +6053,34 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>423</v>
+        <v>96</v>
       </c>
       <c r="J102" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K102" s="4">
-        <v>6.8582401755709482E-2</v>
+        <v>5.3886000000000003E-2</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6358,37 +6094,37 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="J103" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K103" s="4">
-        <v>6.8582401755709482E-2</v>
+        <v>1.1837E-2</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -6399,34 +6135,34 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>431</v>
+        <v>60</v>
       </c>
       <c r="J104" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K104" s="4">
-        <v>0.11659008298470612</v>
+        <v>2.9593000000000001E-2</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6440,37 +6176,37 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="J105" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K105" s="4">
-        <v>0.19888896509155751</v>
+        <v>5.3267000000000002E-2</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -6481,34 +6217,34 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>439</v>
+        <v>361</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="J106" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K106" s="4">
-        <v>5.3885762184169565E-2</v>
+        <v>0.100616</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6522,34 +6258,34 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="J107" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K107" s="4">
-        <v>1.1837121212121212E-2</v>
+        <v>3.5511000000000001E-2</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6563,34 +6299,34 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c r="J108" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K108" s="4">
-        <v>2.9592803030303032E-2</v>
+        <v>2.3674000000000001E-2</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6604,37 +6340,37 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="J109" s="3">
         <v>9</v>
       </c>
       <c r="K109" s="4">
-        <v>5.3267045454545449E-2</v>
+        <v>5.3267000000000002E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -6645,34 +6381,34 @@
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="J110" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K110" s="4">
-        <v>0.1006155303030303</v>
+        <v>7.6940999999999996E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6686,34 +6422,34 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J111" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K111" s="4">
-        <v>3.551136363636364E-2</v>
+        <v>4.7348000000000001E-2</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>459</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6727,34 +6463,34 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="J112" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K112" s="4">
-        <v>2.3674242424242424E-2</v>
+        <v>8.8777999999999996E-2</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>462</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6768,34 +6504,34 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="J113" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K113" s="4">
-        <v>5.3267045454545449E-2</v>
+        <v>0.17755699999999999</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6809,34 +6545,34 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="J114" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K114" s="4">
-        <v>7.6941287878787873E-2</v>
+        <v>4.7348000000000001E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6850,34 +6586,34 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="J115" s="3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K115" s="4">
-        <v>4.7348484848484848E-2</v>
+        <v>0.142045</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6891,34 +6627,34 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="J116" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K116" s="4">
-        <v>8.8778409090909088E-2</v>
+        <v>7.1023000000000003E-2</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6932,34 +6668,34 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="J117" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K117" s="4">
-        <v>0.17755681818181818</v>
+        <v>2.3674000000000001E-2</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>481</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6973,34 +6709,34 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="J118" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K118" s="4">
-        <v>4.7348484848484848E-2</v>
+        <v>3.8275000000000003E-2</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7014,34 +6750,34 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="J119" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K119" s="4">
-        <v>0.14204545454545456</v>
+        <v>7.2579999999999997E-3</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>489</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7055,34 +6791,34 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>490</v>
+        <v>406</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>491</v>
+        <v>407</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>492</v>
+        <v>96</v>
       </c>
       <c r="J120" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K120" s="4">
-        <v>7.1022727272727279E-2</v>
+        <v>2.1405E-2</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>493</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7096,34 +6832,34 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="J121" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K121" s="4">
-        <v>2.3674242424242424E-2</v>
+        <v>1.4907999999999999E-2</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7137,37 +6873,37 @@
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>499</v>
+        <v>413</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J122" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K122" s="4">
-        <v>3.8275070170961975E-2</v>
+        <v>2.2360999999999999E-2</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7178,37 +6914,37 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="J123" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K123" s="4">
-        <v>7.2584742687087176E-3</v>
+        <v>0.17889099999999999</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7219,34 +6955,34 @@
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="J124" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K124" s="4">
-        <v>2.1404618641044544E-2</v>
+        <v>0.193798</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7260,34 +6996,34 @@
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="J125" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K125" s="4">
-        <v>1.4907573047107931E-2</v>
+        <v>0.14907599999999999</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7301,37 +7037,37 @@
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>130</v>
+        <v>427</v>
       </c>
       <c r="J126" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K126" s="4">
-        <v>2.2361359570661897E-2</v>
+        <v>6.7084000000000005E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -7342,37 +7078,37 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="J127" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K127" s="4">
-        <v>0.17889087656529518</v>
+        <v>3.7268999999999997E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -7383,34 +7119,34 @@
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>523</v>
+        <v>432</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>524</v>
+        <v>433</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>525</v>
+        <v>396</v>
       </c>
       <c r="J128" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K128" s="4">
-        <v>0.19379844961240311</v>
+        <v>2.9815000000000001E-2</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7424,34 +7160,34 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>528</v>
+        <v>435</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>529</v>
+        <v>436</v>
       </c>
       <c r="J129" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K129" s="4">
-        <v>0.1490757304710793</v>
+        <v>0.17143700000000001</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>530</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7465,34 +7201,34 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>532</v>
+        <v>439</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>533</v>
+        <v>310</v>
       </c>
       <c r="J130" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K130" s="4">
-        <v>6.7084078711985684E-2</v>
+        <v>0.20125199999999999</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7506,34 +7242,34 @@
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>536</v>
+        <v>439</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>537</v>
+        <v>310</v>
       </c>
       <c r="J131" s="3">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K131" s="4">
-        <v>3.7268932617769826E-2</v>
+        <v>0.20125199999999999</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>538</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7547,34 +7283,34 @@
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>539</v>
+        <v>440</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>540</v>
+        <v>441</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="J132" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K132" s="4">
-        <v>2.9815146094215862E-2</v>
+        <v>6.7084000000000005E-2</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>541</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7588,34 +7324,34 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>543</v>
+        <v>441</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
       <c r="J133" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K133" s="4">
-        <v>0.17143709004174121</v>
+        <v>6.7084000000000005E-2</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>545</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7629,34 +7365,34 @@
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="J134" s="3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K134" s="4">
-        <v>0.20125223613595708</v>
+        <v>3.3903000000000003E-2</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>548</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7670,34 +7406,34 @@
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="J135" s="3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K135" s="4">
-        <v>0.20125223613595708</v>
+        <v>3.3903000000000003E-2</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7711,34 +7447,34 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>552</v>
+        <v>96</v>
       </c>
       <c r="J136" s="3">
         <v>9</v>
       </c>
       <c r="K136" s="4">
-        <v>6.7084078711985684E-2</v>
+        <v>5.3859999999999998E-2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7752,34 +7488,34 @@
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>511</v>
+        <v>250</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
       <c r="J137" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K137" s="4">
-        <v>6.7084078711985684E-2</v>
+        <v>3.4943000000000002E-2</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7793,34 +7529,34 @@
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>555</v>
+        <v>287</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="J138" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K138" s="4">
-        <v>3.3903412943569654E-2</v>
+        <v>4.8008000000000002E-2</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7834,34 +7570,34 @@
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>555</v>
+        <v>287</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>54</v>
+        <v>460</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>110</v>
+        <v>463</v>
       </c>
       <c r="J139" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K139" s="4">
-        <v>3.3903412943569654E-2</v>
+        <v>0.185172</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7875,34 +7611,34 @@
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>560</v>
+        <v>287</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>561</v>
+        <v>302</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>562</v>
+        <v>303</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="J140" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K140" s="4">
-        <v>5.385996409335727E-2</v>
+        <v>4.1148999999999998E-2</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_5_1.xlsx
+++ b/data/coded_segments/md_5_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4365EECC-CC6E-654D-A829-B4E2B81C7C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3779CC3E-6901-CE41-A134-FF6CD2024C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="469">
   <si>
     <t>Color</t>
   </si>
@@ -1422,6 +1422,18 @@
   </si>
   <si>
     <t>11/2/18 11:12:00</t>
+  </si>
+  <si>
+    <t>1: 1245</t>
+  </si>
+  <si>
+    <t>1: 1265</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>11/8/18 14:31:00</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7641,6 +7653,47 @@
         <v>464</v>
       </c>
     </row>
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J141" s="3">
+        <v>21</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0.15653</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/md_5_1.xlsx
+++ b/data/coded_segments/md_5_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="480">
   <si>
     <t>Color</t>
   </si>
@@ -1439,6 +1439,34 @@
   </si>
   <si>
     <t>7/22/2019 16:24:00</t>
+  </si>
+  <si>
+    <t>2: 3521</t>
+  </si>
+  <si>
+    <t>2: 3525</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:14:42</t>
+  </si>
+  <si>
+    <t>3: 424</t>
+  </si>
+  <si>
+    <t>3: 497</t>
+  </si>
+  <si>
+    <t>To our knowledge, this is 
+the first report of a fatality caused by ISMRK.</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:15:52</t>
   </si>
 </sst>
 </file>
@@ -1453,19 +1481,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1872,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1907,7 @@
     <col min="2" max="4" width="22.68359375" customWidth="1"/>
     <col min="5" max="5" width="46.68359375" customWidth="1"/>
     <col min="6" max="8" width="22.68359375" customWidth="1"/>
-    <col min="9" max="9" width="34.68359375" customWidth="1"/>
+    <col min="9" max="9" width="50.68359375" customWidth="1"/>
     <col min="10" max="10" width="7.68359375" customWidth="1"/>
     <col min="11" max="13" width="22.68359375" customWidth="1"/>
   </cols>
@@ -7668,6 +7693,88 @@
         <v>470</v>
       </c>
     </row>
+    <row r="142" spans="1:13" ht="15.6">
+      <c r="A142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J142" s="3">
+        <v>5</v>
+      </c>
+      <c r="K142" s="4">
+        <v>3.7268932617769826E-2</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="25.8">
+      <c r="A143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J143" s="3">
+        <v>74</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0.55158020274299346</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
